--- a/1- Documents ESGI/Test/SuiviRendus.xlsx
+++ b/1- Documents ESGI/Test/SuiviRendus.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navi\Desktop\NetworkPro\1- Documents ESGI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navi\Desktop\NetworkPro\1- Documents ESGI\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="0" windowWidth="21270" windowHeight="11895"/>
+    <workbookView xWindow="7920" yWindow="0" windowWidth="21270" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>Date de rendu</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Documents des principaux tests ( Unit test ou autres…)</t>
   </si>
   <si>
-    <t>Maquettes de l'application</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Commentaires</t>
   </si>
   <si>
-    <t>A voir avec le client soit conf call, soit rendez-vous physique</t>
-  </si>
-  <si>
     <t>Démonstration des 70% du projet</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Vérifier que tout fichier programmé devra comporter le nom du ou des développeurs au début du fichier source</t>
   </si>
   <si>
-    <t>En retard</t>
-  </si>
-  <si>
     <t>Team Collaborator</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Ivan</t>
   </si>
   <si>
-    <t>Après le modèle de gestion</t>
-  </si>
-  <si>
     <t>Guillaume</t>
   </si>
   <si>
@@ -171,13 +159,34 @@
   </si>
   <si>
     <t>Ivan &amp; Client</t>
+  </si>
+  <si>
+    <t>Maquettes de l'application ou Wireframe</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Vue état du réseaux</t>
+  </si>
+  <si>
+    <t>Vue Applications</t>
+  </si>
+  <si>
+    <t>Vue Applications - Ajouter une application</t>
+  </si>
+  <si>
+    <t>Vue Planification Wake On Lan</t>
+  </si>
+  <si>
+    <t>Vue Planification Déploiement d'applications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +223,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +292,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -318,14 +340,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,21 +428,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,12 +762,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -712,491 +779,571 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
         <v>42348</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
       <c r="G3" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22">
         <v>42348</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>42348</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22">
+        <v>42373</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="21">
-        <v>42348</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22">
         <v>42373</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6">
-        <v>42357</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="22">
         <v>42373</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6">
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
         <v>42373</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22">
         <v>42373</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6">
-        <v>42357</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>42373</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6">
-        <v>42005</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>42373</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="3"/>
       <c r="G10" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="22">
         <v>42373</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22">
         <v>42373</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
+        <v>20</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27">
         <v>42373</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>23</v>
+      <c r="A14" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6">
-        <v>42449</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
+        <v>42380</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>23</v>
+      <c r="A15" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" s="6">
-        <v>42449</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
+        <v>42386</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>23</v>
+      <c r="A16" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6">
-        <v>42506</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
+        <v>42386</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>23</v>
+      <c r="A17" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6">
-        <v>42506</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
+        <v>42393</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>23</v>
+      <c r="A18" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6">
-        <v>42539</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
+        <v>42400</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42449</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42449</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42506</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42506</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
         <v>42539</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>36</v>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="6">
+        <v>42539</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:G27"/>
+  <autoFilter ref="A2:G32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
